--- a/medicine/Enfance/Nadia_Roman/Nadia_Roman.xlsx
+++ b/medicine/Enfance/Nadia_Roman/Nadia_Roman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nadia Pereverzeff Roman, née le 15 septembre 1956 à Cannes, est auteur d'albums pour la jeunesse et institutrice spécialisée.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nadia Roman a suivi une scolarité fortement alternée avec la pratique de la voile.
 Après un DEUG de lettres, elle devient institutrice en 1979, issue de l’École normale de Nice.
@@ -546,7 +560,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Participation  « Guide des aides aux élèves en difficulté » Dominique de Peslouan et Gilles Rivalland, Éditions ESF, 2003
 Le Scriptophone et ses homophones, Les Éditions du Ricochet, août 2003
